--- a/docs/RMSE_NN_git.xlsx
+++ b/docs/RMSE_NN_git.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3c9903280de0ad7/Doctorado/publicaciones/02.Nosie_filters/Tablas para resultados/Tablas Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{A493AF5B-9A6D-9341-9184-CDD8F9B0CC76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8B54ABE-07A7-E049-9ADE-11E832FBEB1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE336116-D228-F44E-8EF9-2EB8AD66F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5640" yWindow="-17600" windowWidth="35960" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>GE</t>
-  </si>
-  <si>
-    <t>HARF</t>
   </si>
   <si>
     <t>IPF</t>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>IRF</t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t>FMF</t>
+  </si>
+  <si>
+    <t>HRRF</t>
   </si>
 </sst>
 </file>
@@ -531,21 +537,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03CF1A-F7B8-ED4C-8243-C53D47356A15}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -563,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -575,18 +581,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.14849999999999999</v>
@@ -627,10 +639,16 @@
       <c r="N2" s="4">
         <v>9.7199999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.28939999999999999</v>
@@ -671,10 +689,16 @@
       <c r="N3" s="4">
         <v>0.26490000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26519999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.15509999999999999</v>
@@ -715,10 +739,16 @@
       <c r="N4" s="4">
         <v>0.1069</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.1114</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.1135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.19450000000000001</v>
@@ -759,10 +789,16 @@
       <c r="N5" s="4">
         <v>0.15429999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.14760000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.14940000000000001</v>
@@ -803,10 +839,16 @@
       <c r="N6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.14280000000000001</v>
@@ -847,10 +889,16 @@
       <c r="N7" s="4">
         <v>0.12909999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.1285</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.1013</v>
@@ -891,10 +939,16 @@
       <c r="N8" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1143</v>
@@ -935,10 +989,16 @@
       <c r="N9" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.15709999999999999</v>
@@ -979,10 +1039,16 @@
       <c r="N10" s="4">
         <v>7.0300000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.1153</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.11070000000000001</v>
@@ -1023,10 +1089,16 @@
       <c r="N11" s="4">
         <v>6.8900000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.185</v>
@@ -1067,10 +1139,16 @@
       <c r="N12" s="4">
         <v>5.7299999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1769</v>
@@ -1111,10 +1189,16 @@
       <c r="N13" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.1275</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.18</v>
@@ -1155,10 +1239,16 @@
       <c r="N14" s="4">
         <v>9.0899999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.1419</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.1275</v>
@@ -1199,10 +1289,16 @@
       <c r="N15" s="4">
         <v>2.1600000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.18310000000000001</v>
@@ -1243,10 +1339,16 @@
       <c r="N16" s="4">
         <v>0.1341</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.22189999999999999</v>
@@ -1287,10 +1389,16 @@
       <c r="N17" s="4">
         <v>0.20749999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.12039999999999999</v>
@@ -1331,10 +1439,16 @@
       <c r="N18" s="4">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.13850000000000001</v>
@@ -1375,10 +1489,16 @@
       <c r="N19" s="4">
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.12180000000000001</v>
@@ -1419,10 +1539,16 @@
       <c r="N20" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1154</v>
@@ -1462,6 +1588,12 @@
       </c>
       <c r="N21" s="4">
         <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1474,21 +1606,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1506,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1518,18 +1652,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1825</v>
@@ -1570,10 +1710,16 @@
       <c r="N2" s="4">
         <v>9.8299999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.32040000000000002</v>
@@ -1614,10 +1760,16 @@
       <c r="N3" s="4">
         <v>0.26500000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26939999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.23139999999999999</v>
@@ -1658,10 +1810,16 @@
       <c r="N4" s="4">
         <v>0.1221</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.1326</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.1285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.21890000000000001</v>
@@ -1702,10 +1860,16 @@
       <c r="N5" s="4">
         <v>0.15770000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.1918</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2074</v>
@@ -1746,10 +1910,16 @@
       <c r="N6" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.19439999999999999</v>
@@ -1790,10 +1960,16 @@
       <c r="N7" s="4">
         <v>0.1318</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.13170000000000001</v>
@@ -1834,10 +2010,16 @@
       <c r="N8" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.15459999999999999</v>
@@ -1878,10 +2060,16 @@
       <c r="N9" s="4">
         <v>7.4899999999999994E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.2157</v>
@@ -1922,10 +2110,16 @@
       <c r="N10" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1434</v>
@@ -1966,10 +2160,16 @@
       <c r="N11" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.25850000000000001</v>
@@ -2010,10 +2210,16 @@
       <c r="N12" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2155</v>
@@ -2054,10 +2260,16 @@
       <c r="N13" s="4">
         <v>6.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.23730000000000001</v>
@@ -2098,10 +2310,16 @@
       <c r="N14" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.19420000000000001</v>
@@ -2142,10 +2360,16 @@
       <c r="N15" s="4">
         <v>2.4899999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.1517</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.24610000000000001</v>
@@ -2186,10 +2410,16 @@
       <c r="N16" s="4">
         <v>0.13519999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.1784</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.1077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.2382</v>
@@ -2230,10 +2460,16 @@
       <c r="N17" s="4">
         <v>0.20860000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.2072</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.17469999999999999</v>
@@ -2274,10 +2510,16 @@
       <c r="N18" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.1234</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.19470000000000001</v>
@@ -2318,10 +2560,16 @@
       <c r="N19" s="4">
         <v>2.24E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.16719999999999999</v>
@@ -2362,10 +2610,16 @@
       <c r="N20" s="4">
         <v>4.6600000000000003E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.1196</v>
+      </c>
+      <c r="P20" s="4">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1593</v>
@@ -2405,6 +2659,12 @@
       </c>
       <c r="N21" s="4">
         <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="P21" s="4">
+        <v>4.5900000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2417,21 +2677,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2449,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2461,18 +2723,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.20380000000000001</v>
@@ -2513,10 +2781,16 @@
       <c r="N2" s="4">
         <v>9.9900000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.10050000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.40510000000000002</v>
@@ -2557,10 +2831,16 @@
       <c r="N3" s="4">
         <v>0.26450000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26929999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.22889999999999999</v>
@@ -2601,10 +2881,16 @@
       <c r="N4" s="4">
         <v>0.11459999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.1222</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.24679999999999999</v>
@@ -2645,10 +2931,16 @@
       <c r="N5" s="4">
         <v>0.15920000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.2112</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.25140000000000001</v>
@@ -2689,10 +2981,16 @@
       <c r="N6" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.1807</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.22389999999999999</v>
@@ -2733,10 +3031,16 @@
       <c r="N7" s="4">
         <v>0.13270000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.16900000000000001</v>
@@ -2777,10 +3081,16 @@
       <c r="N8" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.1246</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.17349999999999999</v>
@@ -2821,10 +3131,16 @@
       <c r="N9" s="4">
         <v>7.6700000000000004E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.1341</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.2492</v>
@@ -2865,10 +3181,16 @@
       <c r="N10" s="4">
         <v>7.4300000000000005E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1744</v>
@@ -2909,10 +3231,16 @@
       <c r="N11" s="4">
         <v>8.0600000000000005E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.1084</v>
+      </c>
+      <c r="P11" s="4">
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.30740000000000001</v>
@@ -2953,10 +3281,16 @@
       <c r="N12" s="4">
         <v>6.2300000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2601</v>
@@ -2997,10 +3331,16 @@
       <c r="N13" s="4">
         <v>6.8900000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.28170000000000001</v>
@@ -3041,10 +3381,16 @@
       <c r="N14" s="4">
         <v>9.2899999999999996E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.217</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.2326</v>
@@ -3085,10 +3431,16 @@
       <c r="N15" s="4">
         <v>3.2199999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.29199999999999998</v>
@@ -3129,10 +3481,16 @@
       <c r="N16" s="4">
         <v>0.1341</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.1096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.2515</v>
@@ -3173,10 +3531,16 @@
       <c r="N17" s="4">
         <v>0.20610000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.2079</v>
@@ -3217,10 +3581,16 @@
       <c r="N18" s="4">
         <v>5.5100000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="P18" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.24779999999999999</v>
@@ -3261,10 +3631,16 @@
       <c r="N19" s="4">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1963</v>
@@ -3305,10 +3681,16 @@
       <c r="N20" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.1409</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.2039</v>
@@ -3348,6 +3730,12 @@
       </c>
       <c r="N21" s="4">
         <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.1459</v>
+      </c>
+      <c r="P21" s="4">
+        <v>4.99E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3360,21 +3748,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3392,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3404,18 +3794,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.23330000000000001</v>
@@ -3456,10 +3852,16 @@
       <c r="N2" s="4">
         <v>0.1027</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.433</v>
@@ -3500,10 +3902,16 @@
       <c r="N3" s="4">
         <v>0.26490000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26919999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.31519999999999998</v>
@@ -3544,10 +3952,16 @@
       <c r="N4" s="4">
         <v>0.129</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.1303</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.1399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.26719999999999999</v>
@@ -3588,10 +4002,16 @@
       <c r="N5" s="4">
         <v>0.1638</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2883</v>
@@ -3632,10 +4052,16 @@
       <c r="N6" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.23960000000000001</v>
@@ -3676,10 +4102,16 @@
       <c r="N7" s="4">
         <v>0.13250000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.1817</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.192</v>
@@ -3720,10 +4152,16 @@
       <c r="N8" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.1391</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.19700000000000001</v>
@@ -3764,10 +4202,16 @@
       <c r="N9" s="4">
         <v>7.8799999999999995E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7.9299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.28749999999999998</v>
@@ -3808,10 +4252,16 @@
       <c r="N10" s="4">
         <v>7.6700000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.2011</v>
@@ -3852,10 +4302,16 @@
       <c r="N11" s="4">
         <v>8.2799999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.1235</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.37669999999999998</v>
@@ -3896,10 +4352,16 @@
       <c r="N12" s="4">
         <v>6.7900000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.27889999999999998</v>
@@ -3940,10 +4402,16 @@
       <c r="N13" s="4">
         <v>7.1800000000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.1893</v>
+      </c>
+      <c r="P13" s="4">
+        <v>7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.31169999999999998</v>
@@ -3984,10 +4452,16 @@
       <c r="N14" s="4">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.25159999999999999</v>
@@ -4028,10 +4502,16 @@
       <c r="N15" s="4">
         <v>4.19E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.1908</v>
+      </c>
+      <c r="P15" s="4">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.33090000000000003</v>
@@ -4072,10 +4552,16 @@
       <c r="N16" s="4">
         <v>0.1318</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.26050000000000001</v>
@@ -4116,10 +4602,16 @@
       <c r="N17" s="4">
         <v>0.2056</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.2054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.23669999999999999</v>
@@ -4160,10 +4652,16 @@
       <c r="N18" s="4">
         <v>6.0600000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.1759</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.26819999999999999</v>
@@ -4204,10 +4702,16 @@
       <c r="N19" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="P19" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.20549999999999999</v>
@@ -4248,10 +4752,16 @@
       <c r="N20" s="4">
         <v>5.21E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.21820000000000001</v>
@@ -4291,6 +4801,12 @@
       </c>
       <c r="N21" s="4">
         <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.1648</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5.33E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4303,21 +4819,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4335,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -4347,18 +4865,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.25819999999999999</v>
@@ -4399,10 +4923,16 @@
       <c r="N2" s="4">
         <v>0.10050000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.204145721</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.105056302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.40670000000000001</v>
@@ -4443,10 +4973,16 @@
       <c r="N3" s="4">
         <v>0.27489999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.35175172199999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.32208080500000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.31769999999999998</v>
@@ -4487,10 +5023,16 @@
       <c r="N4" s="4">
         <v>0.1255</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.14080975000000001</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.12567037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.28389999999999999</v>
@@ -4531,10 +5073,16 @@
       <c r="N5" s="4">
         <v>0.1681</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.23750326599999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15318104099999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.30740000000000001</v>
@@ -4575,10 +5123,16 @@
       <c r="N6" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.23245293</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.9808211E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.25469999999999998</v>
@@ -4619,10 +5173,16 @@
       <c r="N7" s="4">
         <v>0.14069999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.19489949000000001</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.13459063099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.21079999999999999</v>
@@ -4663,10 +5223,16 @@
       <c r="N8" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.152916369</v>
+      </c>
+      <c r="P8" s="4">
+        <v>6.3987659000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.21870000000000001</v>
@@ -4707,10 +5273,16 @@
       <c r="N9" s="4">
         <v>8.0699999999999994E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.16384565600000001</v>
+      </c>
+      <c r="P9" s="4">
+        <v>8.1439779000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.30959999999999999</v>
@@ -4751,10 +5323,16 @@
       <c r="N10" s="4">
         <v>7.85E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.231825738</v>
+      </c>
+      <c r="P10" s="4">
+        <v>8.0770130999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.21879999999999999</v>
@@ -4795,10 +5373,16 @@
       <c r="N11" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.13556822800000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7.5645516999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.40250000000000002</v>
@@ -4839,10 +5423,16 @@
       <c r="N12" s="4">
         <v>7.3700000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>0.121628897</v>
+      </c>
+      <c r="P12" s="4">
+        <v>8.5319611000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.3095</v>
@@ -4883,10 +5473,16 @@
       <c r="N13" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.213091583</v>
+      </c>
+      <c r="P13" s="4">
+        <v>8.0720349999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.33879999999999999</v>
@@ -4927,10 +5523,16 @@
       <c r="N14" s="4">
         <v>9.5500000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.26412151099999998</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.104169119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.27839999999999998</v>
@@ -4971,10 +5573,16 @@
       <c r="N15" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.224012398</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5.5286582000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.36249999999999999</v>
@@ -5015,10 +5623,16 @@
       <c r="N16" s="4">
         <v>0.13669999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.27254961500000002</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.120683335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.27650000000000002</v>
@@ -5059,10 +5673,16 @@
       <c r="N17" s="4">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.207247024</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.20256616899999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.25519999999999998</v>
@@ -5103,10 +5723,16 @@
       <c r="N18" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.18984536599999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>6.5701872999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.27450000000000002</v>
@@ -5147,10 +5773,16 @@
       <c r="N19" s="4">
         <v>4.1300000000000003E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.19841028999999999</v>
+      </c>
+      <c r="P19" s="4">
+        <v>4.8183989000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.2399</v>
@@ -5191,10 +5823,16 @@
       <c r="N20" s="4">
         <v>5.3600000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.17206636</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.5036711000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.2545</v>
@@ -5234,6 +5872,12 @@
       </c>
       <c r="N21" s="4">
         <v>0.06</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.18740356499999999</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5.8522324000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5246,21 +5890,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5278,7 +5924,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5290,18 +5936,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.27600000000000002</v>
@@ -5342,10 +5994,16 @@
       <c r="N2" s="4">
         <v>0.1022</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.221321131</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.109351612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.40060000000000001</v>
@@ -5386,10 +6044,16 @@
       <c r="N3" s="4">
         <v>0.27629999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.32995515600000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.29961101699999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.31119999999999998</v>
@@ -5430,10 +6094,16 @@
       <c r="N4" s="4">
         <v>0.13389999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>0.142929895</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.140658109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -5474,10 +6144,16 @@
       <c r="N5" s="4">
         <v>0.17150000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.24986872299999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.15429744100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.33800000000000002</v>
@@ -5518,10 +6194,16 @@
       <c r="N6" s="4">
         <v>5.28E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.26505090599999998</v>
+      </c>
+      <c r="P6" s="4">
+        <v>7.3914945999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.25679999999999997</v>
@@ -5562,10 +6244,16 @@
       <c r="N7" s="4">
         <v>0.1459</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.198470654</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.144668096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.22939999999999999</v>
@@ -5606,10 +6294,16 @@
       <c r="N8" s="4">
         <v>6.5199999999999994E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>0.16709934000000001</v>
+      </c>
+      <c r="P8" s="4">
+        <v>6.6330176000000005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.23930000000000001</v>
@@ -5650,10 +6344,16 @@
       <c r="N9" s="4">
         <v>8.09E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.176635291</v>
+      </c>
+      <c r="P9" s="4">
+        <v>8.2752399000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.3296</v>
@@ -5694,10 +6394,16 @@
       <c r="N10" s="4">
         <v>8.09E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.24916996</v>
+      </c>
+      <c r="P10" s="4">
+        <v>8.7085634999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.2404</v>
@@ -5738,10 +6444,16 @@
       <c r="N11" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.147929169</v>
+      </c>
+      <c r="P11" s="4">
+        <v>8.0566964000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.4244</v>
@@ -5782,10 +6494,16 @@
       <c r="N12" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>0.15496200500000001</v>
+      </c>
+      <c r="P12" s="4">
+        <v>9.3359747000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.35389999999999999</v>
@@ -5826,10 +6544,16 @@
       <c r="N13" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.24619305999999999</v>
+      </c>
+      <c r="P13" s="4">
+        <v>8.5635928E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.35610000000000003</v>
@@ -5870,10 +6594,16 @@
       <c r="N14" s="4">
         <v>9.69E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.281382676</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.108200909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.28520000000000001</v>
@@ -5914,10 +6644,16 @@
       <c r="N15" s="4">
         <v>5.67E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.218283372</v>
+      </c>
+      <c r="P15" s="4">
+        <v>7.0080221999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.38169999999999998</v>
@@ -5958,10 +6694,16 @@
       <c r="N16" s="4">
         <v>0.15570000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.29448395900000002</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.13374767800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.28560000000000002</v>
@@ -6002,10 +6744,16 @@
       <c r="N17" s="4">
         <v>0.20180000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>0.206620832</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.20211194399999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.26179999999999998</v>
@@ -6046,10 +6794,16 @@
       <c r="N18" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.19224248099999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>6.6992334000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.29699999999999999</v>
@@ -6090,10 +6844,16 @@
       <c r="N19" s="4">
         <v>3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.22376979999999999</v>
+      </c>
+      <c r="P19" s="4">
+        <v>6.0479740999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.25650000000000001</v>
@@ -6134,10 +6894,16 @@
       <c r="N20" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.184892057</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.9235128999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.26869999999999999</v>
@@ -6177,6 +6943,12 @@
       </c>
       <c r="N21" s="4">
         <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.19810626100000001</v>
+      </c>
+      <c r="P21" s="4">
+        <v>6.7000425000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RMSE_NN_git.xlsx
+++ b/docs/RMSE_NN_git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Documents/Git_repositorios/regressandnoise/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE336116-D228-F44E-8EF9-2EB8AD66F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CDDBC8-FE02-F541-A622-E2B1782D2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5640" yWindow="-17600" windowWidth="35960" windowHeight="16380" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="30% of noise" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -543,7 +543,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="15.83203125" customWidth="1"/>
+    <col min="1" max="18" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -560,40 +560,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -610,40 +610,40 @@
         <v>0.1041</v>
       </c>
       <c r="E2" s="4">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.14419999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.10050000000000001</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.12720000000000001</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="P2" s="4">
-        <v>9.8500000000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -660,40 +660,40 @@
         <v>0.26690000000000003</v>
       </c>
       <c r="E3" s="4">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.2676</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.27360000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.26669999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.26750000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2646</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26450000000000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.26479999999999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.2671</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26469999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26490000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.26629999999999998</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26519999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -710,40 +710,40 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="E4" s="4">
+        <v>0.1114</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.1462</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.13170000000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.13730000000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.1399</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.1062</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.1096</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.1135</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.14030000000000001</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.13450000000000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.1069</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.1114</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.1135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -760,40 +760,40 @@
         <v>0.16589999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.2039</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.14860000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.17749999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.21160000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15210000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.1462</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1512</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1822</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15670000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.15429999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.14760000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -810,37 +810,37 @@
         <v>6.83E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.1646</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1089</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.18090000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.1103</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.1042</v>
       </c>
       <c r="P6" s="4">
         <v>3.7999999999999999E-2</v>
@@ -860,40 +860,40 @@
         <v>0.14960000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.1285</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.14249999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.13769999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.1336</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.13189999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1225</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1196</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.12330000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1295</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1381</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1384</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.12909999999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.1285</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1295</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -910,40 +910,40 @@
         <v>5.91E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.1047</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.11</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5.3800000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -960,40 +960,40 @@
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.1249</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.13289999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>9.5600000000000004E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>7.3499999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1010,40 +1010,40 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>0.1153</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.1784</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.1229</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.19270000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.1226</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.0300000000000001E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.1153</v>
-      </c>
-      <c r="P10" s="4">
-        <v>6.7599999999999993E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1060,40 +1060,40 @@
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.1183</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>5.9799999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1110,40 +1110,40 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.182</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.13730000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.1789</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.13489999999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>5.8299999999999998E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1160,40 +1160,40 @@
         <v>8.8099999999999998E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>0.1275</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1759</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.1404</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.18340000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.1386</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.1275</v>
-      </c>
-      <c r="P13" s="4">
-        <v>6.8400000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1210,40 +1210,40 @@
         <v>0.10979999999999999</v>
       </c>
       <c r="E14" s="4">
+        <v>0.1419</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.20130000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.14560000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.21640000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>9.1499999999999998E-2</v>
       </c>
       <c r="J14" s="4">
         <v>9.1499999999999998E-2</v>
       </c>
       <c r="K14" s="4">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="L14" s="4">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.14749999999999999</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.1419</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1260,40 +1260,40 @@
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.1119</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.1</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1193</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>2.35E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>9.4799999999999995E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>2.1299999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1310,40 +1310,40 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.18990000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.1457</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.1928</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1023</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.1046</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.15179999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.1338</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1341</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.107</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1360,40 +1360,40 @@
         <v>0.20030000000000001</v>
       </c>
       <c r="E17" s="4">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.23069999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.1956</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.21609999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.2329</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.2079</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.2087</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.20849999999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.2069</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.21729999999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.2077</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.20749999999999999</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.20649999999999999</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.2069</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1410,40 +1410,40 @@
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1114</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1188</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.09E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.1E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.09E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1460,40 +1460,40 @@
         <v>6.3100000000000003E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1109</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>1.84E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1510,40 +1510,40 @@
         <v>7.17E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1399</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.14280000000000001</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>4.07E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>4.24E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1560,44 +1560,44 @@
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1208</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.1275</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>7.4700000000000003E-2</v>
       </c>
       <c r="M21" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="N21" s="4">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P21" s="4">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,13 +1608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1631,40 +1629,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1681,40 +1679,40 @@
         <v>0.1163</v>
       </c>
       <c r="E2" s="4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1822</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.14990000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1822</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1008</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.1002</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.1038</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>0.1004</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.15</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>9.8299999999999998E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.1004</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1731,40 +1729,40 @@
         <v>0.27310000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.28220000000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.2707</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.27039999999999997</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.28220000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2646</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26479999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.26690000000000003</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.27739999999999998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26450000000000001</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26500000000000001</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.28050000000000003</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26939999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1781,40 +1779,40 @@
         <v>0.1386</v>
       </c>
       <c r="E4" s="4">
+        <v>0.1326</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.1389</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.18579999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.2097</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.11990000000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.11890000000000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.1285</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.18459999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.14649999999999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.1221</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.1326</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.1285</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1831,40 +1829,40 @@
         <v>0.17449999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1918</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.2203</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.19409999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.22900000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15529999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.1474</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1555</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.1489</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1966</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.15770000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1918</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.1489</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1881,40 +1879,40 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>0.152</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.2107</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.15340000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.2278</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4.1300000000000003E-2</v>
       </c>
       <c r="J6" s="4">
         <v>4.1300000000000003E-2</v>
       </c>
       <c r="K6" s="4">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="L6" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.15240000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>3.95E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.152</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.2299999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1931,40 +1929,40 @@
         <v>0.16239999999999999</v>
       </c>
       <c r="E7" s="4">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.17510000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1389</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.17510000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1288</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1207</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1288</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.17050000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.14449999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1318</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1288</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1981,40 +1979,40 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.12620000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.13819999999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>9.6600000000000005E-2</v>
       </c>
       <c r="M8" s="4">
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="N8" s="4">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>5.6300000000000003E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5.6599999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2031,37 +2029,37 @@
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.15340000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.12039999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.16220000000000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.1196</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.12</v>
       </c>
       <c r="P9" s="4">
         <v>7.4899999999999994E-2</v>
@@ -2081,40 +2079,40 @@
         <v>0.1051</v>
       </c>
       <c r="E10" s="4">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.22509999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.16650000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.2429</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.16470000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.0300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2131,40 +2129,40 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.1368</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.10580000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.14710000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1108</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>6.3200000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2181,40 +2179,40 @@
         <v>0.11310000000000001</v>
       </c>
       <c r="E12" s="4">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.23480000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.1812</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.24460000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.1658</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2231,40 +2229,40 @@
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.2099</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.1678</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.2261</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>6.88E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.1633</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.13739999999999999</v>
-      </c>
-      <c r="P13" s="4">
-        <v>6.9199999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2281,40 +2279,40 @@
         <v>0.12959999999999999</v>
       </c>
       <c r="E14" s="4">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.24890000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.18729999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>9.35E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.1017</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.1855</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.18379999999999999</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.3100000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2331,40 +2329,40 @@
         <v>0.09</v>
       </c>
       <c r="E15" s="4">
+        <v>0.1517</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.17630000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.14710000000000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.18229999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>2.76E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.1477</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.1517</v>
-      </c>
-      <c r="P15" s="4">
-        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2381,40 +2379,40 @@
         <v>0.17219999999999999</v>
       </c>
       <c r="E16" s="4">
+        <v>0.1784</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.2361</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.1132</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.18870000000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.2361</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1203</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.10349999999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.11509999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.1077</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1923</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.1341</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.13519999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.1784</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.1077</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2431,40 +2429,40 @@
         <v>0.20369999999999999</v>
       </c>
       <c r="E17" s="4">
+        <v>0.2072</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.24110000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.1963</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.22320000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.24460000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.20930000000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.21060000000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.22570000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.20860000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.20860000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.2072</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.20660000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -2481,40 +2479,40 @@
         <v>9.1399999999999995E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.1234</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1497</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.12970000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.16239999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3.78E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1371</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.1234</v>
-      </c>
-      <c r="P18" s="4">
-        <v>3.78E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2531,40 +2529,40 @@
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.15110000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.27E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.1303</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.1618</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.12920000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>2.7E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>2.24E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="P19" s="4">
-        <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -2581,40 +2579,40 @@
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>0.1196</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.16739999999999999</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.1197</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1774</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.04E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.11550000000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.1196</v>
-      </c>
-      <c r="P20" s="4">
-        <v>4.5699999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2631,44 +2629,44 @@
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.16450000000000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.1176</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.1782</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.12280000000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="P21" s="4">
-        <v>4.5900000000000003E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2679,13 +2677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2702,40 +2698,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2752,40 +2748,40 @@
         <v>0.12089999999999999</v>
       </c>
       <c r="E2" s="4">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1993</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.106</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1613</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1993</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1027</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.10059999999999999</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.1087</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.16500000000000001</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>0.1</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.16170000000000001</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2802,40 +2798,40 @@
         <v>0.29370000000000002</v>
       </c>
       <c r="E3" s="4">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.37380000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.28860000000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.27810000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.37380000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.26419999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26479999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.2646</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.3478</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26419999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26450000000000001</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.37480000000000002</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26929999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2852,40 +2848,40 @@
         <v>0.14449999999999999</v>
       </c>
       <c r="E4" s="4">
+        <v>0.1222</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.21840000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.13439999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.18909999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.2261</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.1132</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.11169999999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.1144</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.124</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.19589999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.1321</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.11459999999999999</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.1222</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.124</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2902,40 +2898,40 @@
         <v>0.18559999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.2112</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.2414</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1537</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.24829999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.16039999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.1507</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.2152</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.15759999999999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.15920000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.2112</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.1507</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2952,40 +2948,40 @@
         <v>0.1288</v>
       </c>
       <c r="E6" s="4">
+        <v>0.1807</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.24610000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.18790000000000001</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.26569999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.18579999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.48E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.1807</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.7300000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3002,40 +2998,40 @@
         <v>0.1762</v>
       </c>
       <c r="E7" s="4">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.19769999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1381</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.18190000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.19769999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1268</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1363</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.18490000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.13270000000000001</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.16769999999999999</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1363</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3052,40 +3048,40 @@
         <v>7.0199999999999999E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.1246</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.15970000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.12520000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.17130000000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.12509999999999999</v>
       </c>
       <c r="M8" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="N8" s="4">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.1246</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5.8700000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3102,40 +3098,40 @@
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>0.1341</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0.08</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.17680000000000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.1348</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.1341</v>
-      </c>
-      <c r="P9" s="4">
-        <v>7.7200000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3152,40 +3148,40 @@
         <v>0.1198</v>
       </c>
       <c r="E10" s="4">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.25509999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>8.14E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.1928</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.27200000000000002</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.1923</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.2599999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3202,40 +3198,40 @@
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.1084</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>6.88E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1305</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1696</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1321</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.1084</v>
-      </c>
-      <c r="P11" s="4">
-        <v>6.6199999999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3252,40 +3248,40 @@
         <v>0.1888</v>
       </c>
       <c r="E12" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.27939999999999998</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.2465</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.20180000000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3302,40 +3298,40 @@
         <v>0.12189999999999999</v>
       </c>
       <c r="E13" s="4">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.24490000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.1903</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.25969999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.1993</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>6.93E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.16850000000000001</v>
-      </c>
-      <c r="P13" s="4">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3352,40 +3348,40 @@
         <v>0.15229999999999999</v>
       </c>
       <c r="E14" s="4">
+        <v>0.217</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.28179999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.1053</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.22209999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.29749999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.1089</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.2198</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.217</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3402,40 +3398,40 @@
         <v>0.1033</v>
       </c>
       <c r="E15" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.1973</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.17180000000000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.20219999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.18859999999999999</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.182</v>
-      </c>
-      <c r="P15" s="4">
-        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3452,40 +3448,40 @@
         <v>0.19520000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.27539999999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.12280000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.2268</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.27539999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1205</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1037</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.1096</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.22850000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.13139999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1341</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.20979999999999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.1096</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3502,40 +3498,40 @@
         <v>0.2109</v>
       </c>
       <c r="E17" s="4">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.2482</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.19869999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.23250000000000001</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.25219999999999998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.20710000000000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.20810000000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.2114</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.23180000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.2084</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.20610000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.20619999999999999</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -3552,40 +3548,40 @@
         <v>0.107</v>
       </c>
       <c r="E18" s="4">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1749</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.14760000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.18190000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>6.13E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.16289999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="P18" s="4">
-        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -3602,37 +3598,37 @@
         <v>0.1231</v>
       </c>
       <c r="E19" s="4">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.2036</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.21440000000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>3.56E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>0.04</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.16980000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.18079999999999999</v>
       </c>
       <c r="P19" s="4">
         <v>3.1E-2</v>
@@ -3652,40 +3648,40 @@
         <v>0.1022</v>
       </c>
       <c r="E20" s="4">
+        <v>0.1409</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.192</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.1414</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.2029</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.21E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.13420000000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.16E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.1409</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.21E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -3702,44 +3698,44 @@
         <v>0.11459999999999999</v>
       </c>
       <c r="E21" s="4">
+        <v>0.1459</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.20549999999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.21959999999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.14649999999999999</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.1459</v>
-      </c>
-      <c r="P21" s="4">
-        <v>4.99E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,13 +3746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3773,40 +3767,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3823,40 +3817,40 @@
         <v>0.1295</v>
       </c>
       <c r="E2" s="4">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1138</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.21679999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1822</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.21679999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1075</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.107</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.1149</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>0.1052</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.1827</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>0.1031</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>0.1027</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.1052</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3873,40 +3867,40 @@
         <v>0.2918</v>
       </c>
       <c r="E3" s="4">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.27750000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.40089999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.35020000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.40089999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.26529999999999998</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26569999999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.26769999999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.26419999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.26490000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.40029999999999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3923,40 +3917,40 @@
         <v>0.1792</v>
       </c>
       <c r="E4" s="4">
+        <v>0.1303</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.27150000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.25940000000000002</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.27760000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.12690000000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.1399</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.26569999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.1389</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.129</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.1303</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.1399</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3973,40 +3967,40 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.15920000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.25209999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.22489999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.26129999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.1651</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.14990000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.1525</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.22670000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1613</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1638</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.22409999999999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.1525</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4023,40 +4017,40 @@
         <v>0.15049999999999999</v>
       </c>
       <c r="E6" s="4">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="F6" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.27210000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.2175</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.29110000000000003</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.33E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.21809999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.58E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4073,40 +4067,40 @@
         <v>0.1847</v>
       </c>
       <c r="E7" s="4">
+        <v>0.1817</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.20979999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.1988</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.20979999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1308</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1273</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.13250000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.19570000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.13250000000000001</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.1817</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.13439999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4123,40 +4117,40 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.1391</v>
+      </c>
+      <c r="F8" s="4">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>0.17519999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.1394</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.1865</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>0.06</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>5.96E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.1399</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.1391</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5.9499999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4173,40 +4167,40 @@
         <v>9.4E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="F9" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0.18360000000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.15129999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.19359999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="P9" s="4">
-        <v>7.9299999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4223,40 +4217,40 @@
         <v>0.14169999999999999</v>
       </c>
       <c r="E10" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F10" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.221</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.29239999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>0.1023</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.222</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.7200000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4273,40 +4267,40 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.1235</v>
+      </c>
+      <c r="F11" s="4">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.1767</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1489</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1867</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1517</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.1235</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.0699999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4323,40 +4317,40 @@
         <v>0.21060000000000001</v>
       </c>
       <c r="E12" s="4">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0.33090000000000003</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.33090000000000003</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>6.93E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.1158</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.27650000000000002</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4373,40 +4367,40 @@
         <v>0.1338</v>
       </c>
       <c r="E13" s="4">
+        <v>0.1893</v>
+      </c>
+      <c r="F13" s="4">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.22070000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.28839999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.2278</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.1893</v>
-      </c>
-      <c r="P13" s="4">
-        <v>7.9500000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4423,40 +4417,40 @@
         <v>0.17080000000000001</v>
       </c>
       <c r="E14" s="4">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.11509999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.30070000000000002</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.2437</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.3165</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.10009999999999999</v>
       </c>
       <c r="J14" s="4">
         <v>0.10009999999999999</v>
       </c>
       <c r="K14" s="4">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="L14" s="4">
         <v>0.1212</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.24160000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.4E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.24010000000000001</v>
-      </c>
-      <c r="P14" s="4">
-        <v>9.9299999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4473,40 +4467,40 @@
         <v>0.13150000000000001</v>
       </c>
       <c r="E15" s="4">
+        <v>0.1908</v>
+      </c>
+      <c r="F15" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>0.20730000000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.18179999999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.21279999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.18679999999999999</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>4.19E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.1908</v>
-      </c>
-      <c r="P15" s="4">
-        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4523,40 +4517,40 @@
         <v>0.2238</v>
       </c>
       <c r="E16" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.13539999999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.30409999999999998</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.2571</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.30409999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.12659999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1081</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.1487</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.1116</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.26600000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.13220000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1318</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.1116</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4573,40 +4567,40 @@
         <v>0.21809999999999999</v>
       </c>
       <c r="E17" s="4">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.25669999999999998</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.2394</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.2606</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.2072</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.2077</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.2145</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.2054</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.2384</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.20880000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.2056</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.20710000000000001</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.2054</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4623,40 +4617,40 @@
         <v>0.1047</v>
       </c>
       <c r="E18" s="4">
+        <v>0.1759</v>
+      </c>
+      <c r="F18" s="4">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>0.2011</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.1741</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.2084</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.19639999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.1759</v>
-      </c>
-      <c r="P18" s="4">
-        <v>5.4300000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4673,40 +4667,40 @@
         <v>0.1368</v>
       </c>
       <c r="E19" s="4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F19" s="4">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>0.2137</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.19620000000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.22509999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.1913</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="P19" s="4">
-        <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4723,40 +4717,40 @@
         <v>9.1399999999999995E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="F20" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>0.19980000000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.2132</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.1487</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.21E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.0299999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4773,44 +4767,44 @@
         <v>0.13830000000000001</v>
       </c>
       <c r="E21" s="4">
+        <v>0.1648</v>
+      </c>
+      <c r="F21" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>0.22140000000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.16309999999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.22850000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.33E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.17230000000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.1648</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5.33E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4821,13 +4815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -4844,40 +4836,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4894,40 +4886,40 @@
         <v>0.15160000000000001</v>
       </c>
       <c r="E2" s="4">
+        <v>0.204145721</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.23949999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.115</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.20580000000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.2407</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1072</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.1069</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.12659999999999999</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>0.105056302</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.20419999999999999</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>0.1028</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>0.10050000000000001</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.204145721</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.105056302</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4944,40 +4936,40 @@
         <v>0.3518</v>
       </c>
       <c r="E3" s="4">
+        <v>0.35175172199999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.35239999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.30020000000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.33389999999999997</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.35239999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.27029999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.27450000000000002</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.32208080500000003</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.31740000000000002</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.2697</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.27489999999999998</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.35175172199999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.32208080500000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4994,40 +4986,40 @@
         <v>0.19109999999999999</v>
       </c>
       <c r="E4" s="4">
+        <v>0.14080975000000001</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.25950000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.15629999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.2525</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.27060000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.1351</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.12280000000000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.14369999999999999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.12567037</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.2737</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.1255</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.14080975000000001</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.12567037</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -5044,40 +5036,40 @@
         <v>0.2109</v>
       </c>
       <c r="E5" s="4">
+        <v>0.23750326599999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.16220000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.2384</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.27339999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.16950000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.15190000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.17269999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15318104099999999</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.23849999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.16259999999999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1681</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.23750326599999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15318104099999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5094,40 +5086,40 @@
         <v>0.1736</v>
       </c>
       <c r="E6" s="4">
+        <v>0.23245293</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.28849999999999998</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.2419</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.307</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.10059999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.9808211E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.2331</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.23245293</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.9808211E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -5144,40 +5136,40 @@
         <v>0.19450000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.19489949000000001</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.22209999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.20549999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.22209999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.12859999999999999</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1452</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.13459063099999999</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.21060000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1429</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.14069999999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.19489949000000001</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.13459063099999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -5194,40 +5186,40 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.152916369</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.1837</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.15379999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.1956</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>7.51E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>6.3987659000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.152916369</v>
-      </c>
-      <c r="P8" s="4">
-        <v>6.3987659000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5244,40 +5236,40 @@
         <v>0.1024</v>
       </c>
       <c r="E9" s="4">
+        <v>0.16384565600000001</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.192</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.1636</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.20269999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>8.1439779000000004E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.16170000000000001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.16384565600000001</v>
-      </c>
-      <c r="P9" s="4">
-        <v>8.1439779000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -5294,40 +5286,40 @@
         <v>0.1658</v>
       </c>
       <c r="E10" s="4">
+        <v>0.231825738</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.29749999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0.1052</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.24560000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.3125</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>0.11550000000000001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>8.0770130999999995E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.24379999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.85E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.231825738</v>
-      </c>
-      <c r="P10" s="4">
-        <v>8.0770130999999995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5344,40 +5336,40 @@
         <v>9.9699999999999997E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.13556822800000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.187</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1628</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1981</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>7.5645516999999995E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.16350000000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.13556822800000001</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7.5645516999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5394,40 +5386,40 @@
         <v>0.23810000000000001</v>
       </c>
       <c r="E12" s="4">
+        <v>0.121628897</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.36420000000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0.1484</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.30759999999999998</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.36420000000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.1166</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.15529999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>8.5319611000000004E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.31480000000000002</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.121628897</v>
-      </c>
-      <c r="P12" s="4">
-        <v>8.5319611000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5444,40 +5436,40 @@
         <v>0.16320000000000001</v>
       </c>
       <c r="E13" s="4">
+        <v>0.213091583</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.28889999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>0.10970000000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.23519999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.30149999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.1153</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>8.0720349999999996E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.2482</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.213091583</v>
-      </c>
-      <c r="P13" s="4">
-        <v>8.0720349999999996E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5494,40 +5486,40 @@
         <v>0.19650000000000001</v>
       </c>
       <c r="E14" s="4">
+        <v>0.26412151099999998</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.31929999999999997</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.1283</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.26960000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.33439999999999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.10630000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.1052</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.13220000000000001</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>0.104169119</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.26840000000000003</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.26412151099999998</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.104169119</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -5544,40 +5536,40 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="E15" s="4">
+        <v>0.224012398</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.2429</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.2208</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.24729999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>0.1067</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>5.5286582000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.22670000000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.224012398</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5.5286582000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -5594,40 +5586,40 @@
         <v>0.2535</v>
       </c>
       <c r="E16" s="4">
+        <v>0.27254961500000002</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.33129999999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.1595</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.28960000000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.33129999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1336</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.11840000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.120683335</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.29189999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.13669999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.13669999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.27254961500000002</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.120683335</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5644,40 +5636,40 @@
         <v>0.2213</v>
       </c>
       <c r="E17" s="4">
+        <v>0.207247024</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.26350000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.20069999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.24679999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.26819999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.20519999999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.2127</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.20256616899999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.24590000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.20680000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.20399999999999999</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.207247024</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.20256616899999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -5694,40 +5686,40 @@
         <v>0.13619999999999999</v>
       </c>
       <c r="E18" s="4">
+        <v>0.18984536599999999</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.2092</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.18390000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.21290000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>6.5701872999999994E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.19159999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.18984536599999999</v>
-      </c>
-      <c r="P18" s="4">
-        <v>6.5701872999999994E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5744,40 +5736,40 @@
         <v>0.15659999999999999</v>
       </c>
       <c r="E19" s="4">
+        <v>0.19841028999999999</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.22009999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.20569999999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.22850000000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>4.8183989000000003E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.1898</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.19841028999999999</v>
-      </c>
-      <c r="P19" s="4">
-        <v>4.8183989000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5794,40 +5786,40 @@
         <v>0.1174</v>
       </c>
       <c r="E20" s="4">
+        <v>0.17206636</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.21490000000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.1706</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.2266</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.5036711000000002E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.17580000000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.17206636</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.5036711000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5844,44 +5836,44 @@
         <v>0.1588</v>
       </c>
       <c r="E21" s="4">
+        <v>0.18740356499999999</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.2412</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.1971</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.24740000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.8522324000000001E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.1867</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>0.06</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.18740356499999999</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5.8522324000000001E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5892,13 +5884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -5915,40 +5905,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5965,40 +5955,40 @@
         <v>0.16189999999999999</v>
       </c>
       <c r="E2" s="4">
+        <v>0.221321131</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.2515</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.1226</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.217</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.2407</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1095</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.1082</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.12970000000000001</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>0.109351612</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.2203</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>0.10340000000000001</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>0.1022</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.221321131</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.109351612</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6015,40 +6005,40 @@
         <v>0.31390000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.32995515600000003</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.34320000000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.29859999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.3165</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.35239999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.27629999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.26390000000000002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.2747</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.29961101699999998</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.31819999999999998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.2762</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.27629999999999999</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.32995515600000003</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.29961101699999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6065,40 +6055,40 @@
         <v>0.20519999999999999</v>
       </c>
       <c r="E4" s="4">
+        <v>0.142929895</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.26840000000000003</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.16669999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.26519999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.27060000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.14660000000000001</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.13730000000000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>0.1452</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>0.140658109</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.27029999999999998</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>0.13389999999999999</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.142929895</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.140658109</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6115,40 +6105,40 @@
         <v>0.21929999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.24986872299999999</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.16819999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.249</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.28520000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17749999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.153</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1792</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.15429744100000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.25159999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.17150000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.24986872299999999</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.15429744100000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6165,40 +6155,40 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="E6" s="4">
+        <v>0.26505090599999998</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.31240000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.1176</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.26950000000000002</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.3256</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>8.14E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.08</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>7.3914945999999995E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.26490000000000002</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>5.28E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.26505090599999998</v>
-      </c>
-      <c r="P6" s="4">
-        <v>7.3914945999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6215,40 +6205,40 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.198470654</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.22020000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.15229999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.20449999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.22209999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.14460000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1406</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1583</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.144668096</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.2087</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1459</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.198470654</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.144668096</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6265,40 +6255,40 @@
         <v>9.9299999999999999E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>0.16709934000000001</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.19750000000000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>7.85E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.1676</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.1956</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>6.6330176000000005E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.16709934000000001</v>
-      </c>
-      <c r="P8" s="4">
-        <v>6.6330176000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6315,40 +6305,40 @@
         <v>0.111</v>
       </c>
       <c r="E9" s="4">
+        <v>0.176635291</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.20530000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>0.1777</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.215</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>9.98E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>8.2752399000000004E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.1772</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>8.09E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.176635291</v>
-      </c>
-      <c r="P9" s="4">
-        <v>8.2752399000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6365,40 +6355,40 @@
         <v>0.18379999999999999</v>
       </c>
       <c r="E10" s="4">
+        <v>0.24916996</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.31030000000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0.1178</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.2606</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.3246</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>0.12570000000000001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>8.7085634999999995E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.26029999999999998</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>8.09E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.24916996</v>
-      </c>
-      <c r="P10" s="4">
-        <v>8.7085634999999995E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6415,40 +6405,40 @@
         <v>0.1113</v>
       </c>
       <c r="E11" s="4">
+        <v>0.147929169</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1769</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.2084</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.10050000000000001</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>8.0566964000000005E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1784</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.147929169</v>
-      </c>
-      <c r="P11" s="4">
-        <v>8.0566964000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6465,40 +6455,40 @@
         <v>0.27089999999999997</v>
       </c>
       <c r="E12" s="4">
+        <v>0.15496200500000001</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.37719999999999998</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0.1479</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.33979999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.36420000000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>0.10639999999999999</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.16639999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>9.3359747000000007E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.33739999999999998</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.15496200500000001</v>
-      </c>
-      <c r="P12" s="4">
-        <v>9.3359747000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6515,40 +6505,40 @@
         <v>0.20430000000000001</v>
       </c>
       <c r="E13" s="4">
+        <v>0.24619305999999999</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.31780000000000003</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>0.1275</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.30149999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.1242</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>8.5635928E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.2802</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.24619305999999999</v>
-      </c>
-      <c r="P13" s="4">
-        <v>8.5635928E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6565,40 +6555,40 @@
         <v>0.21909999999999999</v>
       </c>
       <c r="E14" s="4">
+        <v>0.281382676</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.33610000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>0.1431</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.2863</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.35010000000000002</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.1147</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.11169999999999999</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>0.108200909</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.28620000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>9.69E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.281382676</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.108200909</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6615,40 +6605,40 @@
         <v>0.1757</v>
       </c>
       <c r="E15" s="4">
+        <v>0.218283372</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.2467</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>0.1111</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.21529999999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.24729999999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>7.0080221999999998E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.2114</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>5.67E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.218283372</v>
-      </c>
-      <c r="P15" s="4">
-        <v>7.0080221999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6665,40 +6655,40 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="E16" s="4">
+        <v>0.29448395900000002</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.34770000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.1759</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.31230000000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.34770000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1603</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.13400000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.19309999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.13374767800000001</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.31480000000000002</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.14530000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.15570000000000001</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.29448395900000002</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.13374767800000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6715,40 +6705,40 @@
         <v>0.2271</v>
       </c>
       <c r="E17" s="4">
+        <v>0.206620832</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.26939999999999997</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>0.20230000000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.25469999999999998</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.2732</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.20250000000000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.20349999999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.21540000000000001</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>0.20211194399999999</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.25240000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>0.20730000000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>0.20180000000000001</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.206620832</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.20211194399999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6765,40 +6755,40 @@
         <v>0.12870000000000001</v>
       </c>
       <c r="E18" s="4">
+        <v>0.19224248099999999</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.2152</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.193</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.21290000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>6.6992334000000001E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.20669999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.19224248099999999</v>
-      </c>
-      <c r="P18" s="4">
-        <v>6.6992334000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6815,40 +6805,40 @@
         <v>0.16220000000000001</v>
       </c>
       <c r="E19" s="4">
+        <v>0.22376979999999999</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.2402</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>0.10390000000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.23219999999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.22850000000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>0.1027</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>6.0479740999999997E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.22120000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>5.33E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.22376979999999999</v>
-      </c>
-      <c r="P19" s="4">
-        <v>6.0479740999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -6865,40 +6855,40 @@
         <v>0.1376</v>
       </c>
       <c r="E20" s="4">
+        <v>0.184892057</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.2298</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.18859999999999999</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.2266</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.9235128999999997E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.18640000000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.184892057</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.9235128999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -6915,44 +6905,44 @@
         <v>0.17660000000000001</v>
       </c>
       <c r="E21" s="4">
+        <v>0.19810626100000001</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.245</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.19719999999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.24740000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>6.7000425000000002E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.2089</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.19810626100000001</v>
-      </c>
-      <c r="P21" s="4">
-        <v>6.7000425000000002E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
